--- a/src/openqaoa-core/Adriano_Results/19-1-24/exp1/results_comparison.xlsx
+++ b/src/openqaoa-core/Adriano_Results/19-1-24/exp1/results_comparison.xlsx
@@ -6,18 +6,20 @@
     <sheet state="visible" name="problem 1" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="problem 2" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="problem 3" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Hoja 4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="problem 4" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'problem 1'!$C$5:$G$69</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'problem 2'!$C$7:$G$65</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'problem 1'!$C$5:$G$93</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'problem 2'!$C$7:$G$91</definedName>
+    <definedName hidden="1" localSheetId="2" name="_xlnm._FilterDatabase">'problem 3'!$D$5:$H$98</definedName>
+    <definedName hidden="1" localSheetId="3" name="_xlnm._FilterDatabase">'problem 4'!$D$6:$H$98</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="140">
   <si>
     <t>1. 'lowest cost is last cost?' is a boolean that describes if the lowest cost was found in te last iteration</t>
   </si>
@@ -58,13 +60,16 @@
     <t>3-bias-rand-x-Powell</t>
   </si>
   <si>
+    <t>3-annealing-ramp-x-COBYLA</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>4-bias-ramp-x-Powell</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>3-annealing-ramp-x-COBYLA</t>
+    <t>4-ann-ramp-x-Powell</t>
   </si>
   <si>
     <t>3-annealing-rand-x-Powell</t>
@@ -76,58 +81,91 @@
     <t>3-bias-rand-x-COBYLA</t>
   </si>
   <si>
+    <t>5-standard-ramp-x-Powell</t>
+  </si>
+  <si>
+    <t>5-bias-rand-x-Powell</t>
+  </si>
+  <si>
     <t>4-annealing-rand-x-Powell</t>
   </si>
   <si>
+    <t>3-standard-rand-x-Powell</t>
+  </si>
+  <si>
     <t>4-bias-ramp-x-COBYLA</t>
   </si>
   <si>
     <t>4-bias-rand-x-Powell</t>
   </si>
   <si>
-    <t>3-standard-rand-x-Powell</t>
+    <t>3-annealing-ramp-x-Powell</t>
+  </si>
+  <si>
+    <t>3-annealing-rand-x-COBYLA</t>
+  </si>
+  <si>
+    <t>3-bias-ramp-x-Powell</t>
+  </si>
+  <si>
+    <t>3-standard-ramp-x-COBYLA</t>
+  </si>
+  <si>
+    <t>4-bias-rand-x-NelderMead</t>
   </si>
   <si>
     <t>4-bias-rand-xy-Powell</t>
   </si>
   <si>
-    <t>4-bias-rand-x-NelderMead</t>
-  </si>
-  <si>
-    <t>3-annealing-ramp-x-Powell</t>
-  </si>
-  <si>
-    <t>3-annealing-rand-x-COBYLA</t>
-  </si>
-  <si>
-    <t>3-bias-ramp-x-Powell</t>
-  </si>
-  <si>
-    <t>3-standard-ramp-x-COBYLA</t>
-  </si>
-  <si>
     <t>3-standard-rand-x-COBYLA</t>
   </si>
   <si>
+    <t>5-standard-rand-x-COBYLA</t>
+  </si>
+  <si>
+    <t>3-bias-ramp-xy-Powell</t>
+  </si>
+  <si>
+    <t>3-standard-rand-x-Neldermead</t>
+  </si>
+  <si>
+    <t>4-standard-rand-x-Neldermead</t>
+  </si>
+  <si>
     <t>4-standard-rand-xy-Powell</t>
   </si>
   <si>
-    <t>4-standard-rand-x-Neldermead</t>
-  </si>
-  <si>
-    <t>3-bias-ramp-xy-Powell</t>
-  </si>
-  <si>
-    <t>3-standard-rand-x-Neldermead</t>
+    <t>5-standard-rand-x-Neldermead</t>
+  </si>
+  <si>
+    <t>5-bias-rand-x-Neldermead</t>
+  </si>
+  <si>
+    <t>3-bias-rand-xy-Powell</t>
+  </si>
+  <si>
+    <t>3-standard-rand-xy-Powell</t>
   </si>
   <si>
     <t>4-standard-rand-xy-COBYLA</t>
   </si>
   <si>
-    <t>3-bias-rand-xy-Powell</t>
-  </si>
-  <si>
-    <t>3-standard-rand-xy-Powell</t>
+    <t>5-standard-rand-x-Powell</t>
+  </si>
+  <si>
+    <t>3-annealing-rand-x-Neldermead</t>
+  </si>
+  <si>
+    <t>3-annealing-rand-xy-Powell</t>
+  </si>
+  <si>
+    <t>3-bias-ramp-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>3-bias-rand-x-Neldermead</t>
+  </si>
+  <si>
+    <t>3-standard-ramp-xy-Powell</t>
   </si>
   <si>
     <t>4-bias-rand-x-COBYLA</t>
@@ -136,33 +174,30 @@
     <t>4-standard-ramp-xy-Powell</t>
   </si>
   <si>
-    <t>3-annealing-rand-xy-Powell</t>
-  </si>
-  <si>
-    <t>3-annealing-rand-x-Neldermead</t>
-  </si>
-  <si>
-    <t>3-bias-ramp-xy-Neldermead</t>
-  </si>
-  <si>
-    <t>3-bias-rand-x-Neldermead</t>
-  </si>
-  <si>
-    <t>3-standard-ramp-xy-Powell</t>
+    <t>3-bias-ramp-x-COBYLA</t>
+  </si>
+  <si>
+    <t>3-standard-rand-xy-Neldermead</t>
   </si>
   <si>
     <t>4-bias-ramp-xy-NelderMead</t>
   </si>
   <si>
-    <t>3-bias-ramp-x-COBYLA</t>
-  </si>
-  <si>
-    <t>3-standard-rand-xy-Neldermead</t>
+    <t>4-ann-ramp-x-Neldermead</t>
   </si>
   <si>
     <t>4-standard-ramp-xy-NelderMead</t>
   </si>
   <si>
+    <t>3-annealing-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>3-bias-rand-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>3-standard-rand-xy-COBYLA</t>
+  </si>
+  <si>
     <t>4-annealing-rand-x-NelderMead</t>
   </si>
   <si>
@@ -172,49 +207,46 @@
     <t>4-bias-rand-xy-COBYLA</t>
   </si>
   <si>
-    <t>3-annealing-ramp-xy-COBYLA</t>
-  </si>
-  <si>
-    <t>3-bias-rand-xy-Neldermead</t>
-  </si>
-  <si>
-    <t>3-standard-rand-xy-COBYLA</t>
+    <t>3-annealing-ramp-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>3-annealing-ramp-xy-Powell</t>
+  </si>
+  <si>
+    <t>3-annealing-rand-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>3-bias-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>3-standard-ramp-xy-Neldermead</t>
   </si>
   <si>
     <t>4-bias-rand-xy-NelderMead</t>
   </si>
   <si>
-    <t>3-annealing-ramp-xy-Powell</t>
-  </si>
-  <si>
-    <t>3-annealing-ramp-xy-Neldermead</t>
-  </si>
-  <si>
-    <t>3-annealing-rand-xy-COBYLA</t>
-  </si>
-  <si>
-    <t>3-bias-ramp-xy-COBYLA</t>
-  </si>
-  <si>
-    <t>3-standard-ramp-xy-Neldermead</t>
+    <t>3-bias-rand-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>3-standard-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>4-bias-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>4-standard-ramp-x-Neldermead</t>
   </si>
   <si>
     <t>4-standard-ramp-xy-COBYLA</t>
   </si>
   <si>
-    <t>4-bias-ramp-xy-COBYLA</t>
-  </si>
-  <si>
-    <t>4-standard-ramp-x-Neldermead</t>
-  </si>
-  <si>
     <t>4-standard-rand-xy-Neldermead</t>
   </si>
   <si>
-    <t>3-bias-rand-xy-COBYLA</t>
-  </si>
-  <si>
-    <t>3-standard-ramp-xy-COBYLA</t>
+    <t>5-standard-ramp-x-COBYLA</t>
+  </si>
+  <si>
+    <t>5-bias-rand-x-COBYLA</t>
   </si>
   <si>
     <t>4-biam-ramp-x-NelderMead</t>
@@ -223,13 +255,19 @@
     <t>4-standard-ramp-x-COBYLA</t>
   </si>
   <si>
+    <t>3-annealing-rand-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>3-standard-ramp-x-Neldermead</t>
+  </si>
+  <si>
     <t>4-annealing-rand-x-COBYLA</t>
   </si>
   <si>
-    <t>3-annealing-rand-xy-Neldermead</t>
-  </si>
-  <si>
-    <t>3-standard-ramp-x-Neldermead</t>
+    <t>4-ann-ramp-x-COBYLA</t>
+  </si>
+  <si>
+    <t>5-standard-ramp-x-Neldermead</t>
   </si>
   <si>
     <t>3-annealing-ramp-x-Neldermead</t>
@@ -238,12 +276,51 @@
     <t>3-bias-ramp-x-Neldermead</t>
   </si>
   <si>
-    <t>el ultimo que procese fue 3-ann-rand-x-COBYLA</t>
+    <t>4-ann-rand-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>4-ann-rand-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>4-ann-rand-xy-Powell</t>
+  </si>
+  <si>
+    <t>4-ann-ramp-xy-Neldemead</t>
+  </si>
+  <si>
+    <t>4-ann-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>4-ann-ramp-xy-Powell</t>
+  </si>
+  <si>
+    <t>5-standard-rand-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>5-standard-rand-xy-Powell</t>
+  </si>
+  <si>
+    <t>5-standard-rand-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>5-standard-ramp-xy-Powell</t>
+  </si>
+  <si>
+    <t>5-standard-ramp-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>5-standard-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>problem 2</t>
   </si>
   <si>
     <t>4-bias-rand-x-Neldermead</t>
   </si>
   <si>
+    <t>4-ann-rand-Powell</t>
+  </si>
+  <si>
     <t>4-bias-rand-xy-Neldermead</t>
   </si>
   <si>
@@ -256,20 +333,119 @@
     <t>4-bias-ramp-x-Neldermead</t>
   </si>
   <si>
+    <t>4-ann-rand-x-COBYLA</t>
+  </si>
+  <si>
     <t>4-standard-ramp-xy-Neldermead</t>
   </si>
   <si>
+    <t>4-ann-ramp-xy-Neldermead</t>
+  </si>
+  <si>
     <t>problem 3</t>
   </si>
   <si>
+    <t>5-bias-rand-xy-Powell</t>
+  </si>
+  <si>
+    <t>5-bias-rand-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>5-bias-rand-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>5-bias-ramp-x-Powell</t>
+  </si>
+  <si>
+    <t>5-bias-ramp-x-Neldermead</t>
+  </si>
+  <si>
+    <t>5-bias-ramp-x-COBYLA</t>
+  </si>
+  <si>
+    <t>4-sandard-ramp-xy-Powell</t>
+  </si>
+  <si>
+    <t>4-sandard-ramp-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>4-sandard-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>4-bias-rand-xy-Cobyla</t>
+  </si>
+  <si>
+    <t>4-annealing-ramp-xy-Powell</t>
+  </si>
+  <si>
+    <t>4-annealing-ramp-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>4-annealing-ramp-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>4-ann-rand-x-Powell</t>
+  </si>
+  <si>
+    <t>4-ann-rand-x-Neldermead</t>
+  </si>
+  <si>
+    <t>4-ann-annealing-ramp-x-COBYLA</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>3-ann-rand-xy-Powell</t>
+  </si>
+  <si>
+    <t>3-ann-rand-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>3-ann-rand-xy-COBYLA</t>
+  </si>
+  <si>
+    <t>3-ann-rand-x-Powell</t>
+  </si>
+  <si>
+    <t>3-ann-rand-x-Neldermead</t>
+  </si>
+  <si>
+    <t>3-ann-rand-x-COBYLA</t>
+  </si>
+  <si>
+    <t>3-ann-ramp-xy-Powell</t>
+  </si>
+  <si>
+    <t>3-ann-ramp-xy-</t>
+  </si>
+  <si>
+    <t>3-ann-ramp-x-Powell</t>
+  </si>
+  <si>
+    <t>3-ann-ramp-x-Neldermead</t>
+  </si>
+  <si>
+    <t>3-ann-ramp-x-COBYLA</t>
+  </si>
+  <si>
     <t>problem 4</t>
+  </si>
+  <si>
+    <t>3-ann-ramp-xy-Neldermead</t>
+  </si>
+  <si>
+    <t>3-ann-ramp-xy-COBYLA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -281,13 +457,23 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -296,12 +482,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,7 +838,7 @@
         <v>90.0</v>
       </c>
       <c r="E10" s="1">
-        <v>1700.0</v>
+        <v>20.0</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -666,7 +855,7 @@
         <v>90.0</v>
       </c>
       <c r="E11" s="1">
-        <v>20.0</v>
+        <v>1700.0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
@@ -676,20 +865,20 @@
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>100.0</v>
+        <v>90.0</v>
       </c>
       <c r="E12" s="1">
-        <v>275.0</v>
+        <v>240.0</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -697,27 +886,27 @@
         <v>17</v>
       </c>
       <c r="D13" s="1">
-        <v>110.0</v>
+        <v>100.0</v>
       </c>
       <c r="E13" s="1">
-        <v>55.0</v>
+        <v>275.0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D14" s="1">
-        <v>112.0</v>
+        <v>110.0</v>
       </c>
       <c r="E14" s="1">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>14</v>
@@ -731,13 +920,13 @@
         <v>18</v>
       </c>
       <c r="D15" s="1">
-        <v>125.0</v>
+        <v>112.0</v>
       </c>
       <c r="E15" s="1">
-        <v>60.0</v>
+        <v>52.0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>14</v>
@@ -748,10 +937,10 @@
         <v>19</v>
       </c>
       <c r="D16" s="1">
-        <v>137.0</v>
+        <v>125.0</v>
       </c>
       <c r="E16" s="1">
-        <v>240.0</v>
+        <v>60.0</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>9</v>
@@ -761,37 +950,37 @@
       </c>
     </row>
     <row r="17">
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>140.0</v>
+        <v>125.0</v>
       </c>
       <c r="E17" s="1">
-        <v>72.0</v>
+        <v>1550.0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="1">
-        <v>140.0</v>
+        <v>125.0</v>
       </c>
       <c r="E18" s="1">
-        <v>700.0</v>
+        <v>850.0</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -799,10 +988,10 @@
         <v>22</v>
       </c>
       <c r="D19" s="1">
-        <v>140.0</v>
+        <v>137.0</v>
       </c>
       <c r="E19" s="1">
-        <v>280.0</v>
+        <v>240.0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -816,13 +1005,13 @@
         <v>23</v>
       </c>
       <c r="D20" s="1">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
       <c r="E20" s="1">
-        <v>720.0</v>
+        <v>280.0</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>14</v>
@@ -833,16 +1022,16 @@
         <v>24</v>
       </c>
       <c r="D21" s="1">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
       <c r="E21" s="1">
-        <v>580.0</v>
+        <v>72.0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22">
@@ -850,13 +1039,13 @@
         <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>150.0</v>
+        <v>140.0</v>
       </c>
       <c r="E22" s="1">
-        <v>67.0</v>
+        <v>700.0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>14</v>
@@ -870,13 +1059,13 @@
         <v>150.0</v>
       </c>
       <c r="E23" s="1">
-        <v>25.0</v>
+        <v>67.0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
@@ -887,13 +1076,13 @@
         <v>150.0</v>
       </c>
       <c r="E24" s="1">
-        <v>550.0</v>
+        <v>25.0</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
@@ -904,7 +1093,7 @@
         <v>150.0</v>
       </c>
       <c r="E25" s="1">
-        <v>40.0</v>
+        <v>550.0</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>14</v>
@@ -918,10 +1107,10 @@
         <v>29</v>
       </c>
       <c r="D26" s="1">
-        <v>155.0</v>
+        <v>150.0</v>
       </c>
       <c r="E26" s="1">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>14</v>
@@ -935,16 +1124,16 @@
         <v>30</v>
       </c>
       <c r="D27" s="1">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
       <c r="E27" s="1">
-        <v>450.0</v>
+        <v>580.0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -952,16 +1141,16 @@
         <v>31</v>
       </c>
       <c r="D28" s="1">
-        <v>160.0</v>
+        <v>150.0</v>
       </c>
       <c r="E28" s="1">
-        <v>580.0</v>
+        <v>720.0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
@@ -969,27 +1158,27 @@
         <v>32</v>
       </c>
       <c r="D29" s="1">
-        <v>160.0</v>
+        <v>155.0</v>
       </c>
       <c r="E29" s="1">
-        <v>375.0</v>
+        <v>35.0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="30">
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="1">
-        <v>160.0</v>
+        <v>155.0</v>
       </c>
       <c r="E30" s="1">
-        <v>500.0</v>
+        <v>54.0</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -1003,13 +1192,13 @@
         <v>34</v>
       </c>
       <c r="D31" s="1">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
       <c r="E31" s="1">
-        <v>42.0</v>
+        <v>375.0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -1020,13 +1209,13 @@
         <v>35</v>
       </c>
       <c r="D32" s="1">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
       <c r="E32" s="1">
-        <v>350.0</v>
+        <v>500.0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>14</v>
@@ -1037,16 +1226,16 @@
         <v>36</v>
       </c>
       <c r="D33" s="1">
-        <v>165.0</v>
+        <v>160.0</v>
       </c>
       <c r="E33" s="1">
-        <v>175.0</v>
+        <v>580.0</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -1054,10 +1243,10 @@
         <v>37</v>
       </c>
       <c r="D34" s="1">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
       <c r="E34" s="1">
-        <v>57.0</v>
+        <v>450.0</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>14</v>
@@ -1071,10 +1260,10 @@
         <v>38</v>
       </c>
       <c r="D35" s="1">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
       <c r="E35" s="1">
-        <v>250.0</v>
+        <v>540.0</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>14</v>
@@ -1088,10 +1277,10 @@
         <v>39</v>
       </c>
       <c r="D36" s="1">
-        <v>170.0</v>
+        <v>160.0</v>
       </c>
       <c r="E36" s="1">
-        <v>190.0</v>
+        <v>600.0</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>14</v>
@@ -1105,16 +1294,16 @@
         <v>40</v>
       </c>
       <c r="D37" s="1">
-        <v>170.0</v>
+        <v>165.0</v>
       </c>
       <c r="E37" s="1">
-        <v>510.0</v>
+        <v>350.0</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38">
@@ -1122,16 +1311,16 @@
         <v>41</v>
       </c>
       <c r="D38" s="1">
-        <v>170.0</v>
+        <v>165.0</v>
       </c>
       <c r="E38" s="1">
-        <v>590.0</v>
+        <v>175.0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39">
@@ -1139,30 +1328,30 @@
         <v>42</v>
       </c>
       <c r="D39" s="1">
-        <v>170.0</v>
+        <v>165.0</v>
       </c>
       <c r="E39" s="1">
-        <v>550.0</v>
+        <v>42.0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D40" s="1">
-        <v>170.0</v>
+        <v>165.0</v>
       </c>
       <c r="E40" s="1">
-        <v>275.0</v>
+        <v>255.0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>14</v>
@@ -1173,10 +1362,10 @@
         <v>44</v>
       </c>
       <c r="D41" s="1">
-        <v>175.0</v>
+        <v>170.0</v>
       </c>
       <c r="E41" s="1">
-        <v>560.0</v>
+        <v>510.0</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>9</v>
@@ -1190,10 +1379,10 @@
         <v>45</v>
       </c>
       <c r="D42" s="1">
-        <v>175.0</v>
+        <v>170.0</v>
       </c>
       <c r="E42" s="1">
-        <v>50.0</v>
+        <v>190.0</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>14</v>
@@ -1207,16 +1396,16 @@
         <v>46</v>
       </c>
       <c r="D43" s="1">
-        <v>175.0</v>
+        <v>170.0</v>
       </c>
       <c r="E43" s="1">
         <v>590.0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44">
@@ -1224,7 +1413,7 @@
         <v>47</v>
       </c>
       <c r="D44" s="1">
-        <v>177.0</v>
+        <v>170.0</v>
       </c>
       <c r="E44" s="1">
         <v>550.0</v>
@@ -1241,16 +1430,16 @@
         <v>48</v>
       </c>
       <c r="D45" s="1">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="E45" s="1">
-        <v>550.0</v>
+        <v>275.0</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46">
@@ -1258,10 +1447,10 @@
         <v>49</v>
       </c>
       <c r="D46" s="1">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="E46" s="1">
-        <v>355.0</v>
+        <v>57.0</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>14</v>
@@ -1275,10 +1464,10 @@
         <v>50</v>
       </c>
       <c r="D47" s="1">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="E47" s="1">
-        <v>68.0</v>
+        <v>250.0</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>14</v>
@@ -1292,10 +1481,10 @@
         <v>51</v>
       </c>
       <c r="D48" s="1">
-        <v>180.0</v>
+        <v>175.0</v>
       </c>
       <c r="E48" s="1">
-        <v>20.0</v>
+        <v>50.0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>14</v>
@@ -1309,16 +1498,16 @@
         <v>52</v>
       </c>
       <c r="D49" s="1">
-        <v>180.0</v>
+        <v>175.0</v>
       </c>
       <c r="E49" s="1">
-        <v>550.0</v>
+        <v>590.0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50">
@@ -1326,16 +1515,16 @@
         <v>53</v>
       </c>
       <c r="D50" s="1">
-        <v>180.0</v>
+        <v>175.0</v>
       </c>
       <c r="E50" s="1">
-        <v>40.0</v>
+        <v>560.0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51">
@@ -1343,16 +1532,16 @@
         <v>54</v>
       </c>
       <c r="D51" s="1">
-        <v>185.0</v>
+        <v>175.0</v>
       </c>
       <c r="E51" s="1">
-        <v>550.0</v>
+        <v>540.0</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52">
@@ -1360,16 +1549,16 @@
         <v>55</v>
       </c>
       <c r="D52" s="1">
-        <v>185.0</v>
+        <v>177.0</v>
       </c>
       <c r="E52" s="1">
-        <v>190.0</v>
+        <v>550.0</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53">
@@ -1377,16 +1566,16 @@
         <v>56</v>
       </c>
       <c r="D53" s="1">
-        <v>185.0</v>
+        <v>180.0</v>
       </c>
       <c r="E53" s="1">
-        <v>540.0</v>
+        <v>20.0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
@@ -1394,16 +1583,16 @@
         <v>57</v>
       </c>
       <c r="D54" s="1">
-        <v>185.0</v>
+        <v>180.0</v>
       </c>
       <c r="E54" s="1">
-        <v>18.0</v>
+        <v>550.0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55">
@@ -1411,10 +1600,10 @@
         <v>58</v>
       </c>
       <c r="D55" s="1">
-        <v>185.0</v>
+        <v>180.0</v>
       </c>
       <c r="E55" s="1">
-        <v>55.0</v>
+        <v>40.0</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
@@ -1428,16 +1617,16 @@
         <v>59</v>
       </c>
       <c r="D56" s="1">
-        <v>185.0</v>
+        <v>180.0</v>
       </c>
       <c r="E56" s="1">
         <v>550.0</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="57">
@@ -1445,10 +1634,10 @@
         <v>60</v>
       </c>
       <c r="D57" s="1">
-        <v>190.0</v>
+        <v>180.0</v>
       </c>
       <c r="E57" s="1">
-        <v>50.0</v>
+        <v>355.0</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>14</v>
@@ -1462,10 +1651,10 @@
         <v>61</v>
       </c>
       <c r="D58" s="1">
-        <v>190.0</v>
+        <v>180.0</v>
       </c>
       <c r="E58" s="1">
-        <v>62.0</v>
+        <v>68.0</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
@@ -1479,10 +1668,10 @@
         <v>62</v>
       </c>
       <c r="D59" s="1">
-        <v>190.0</v>
+        <v>185.0</v>
       </c>
       <c r="E59" s="1">
-        <v>580.0</v>
+        <v>540.0</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>9</v>
@@ -1496,16 +1685,16 @@
         <v>63</v>
       </c>
       <c r="D60" s="1">
+        <v>185.0</v>
+      </c>
+      <c r="E60" s="1">
         <v>190.0</v>
       </c>
-      <c r="E60" s="1">
-        <v>550.0</v>
-      </c>
       <c r="F60" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
@@ -1513,10 +1702,10 @@
         <v>64</v>
       </c>
       <c r="D61" s="1">
-        <v>190.0</v>
+        <v>185.0</v>
       </c>
       <c r="E61" s="1">
-        <v>50.0</v>
+        <v>18.0</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>14</v>
@@ -1530,10 +1719,10 @@
         <v>65</v>
       </c>
       <c r="D62" s="1">
-        <v>190.0</v>
+        <v>185.0</v>
       </c>
       <c r="E62" s="1">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>14</v>
@@ -1547,16 +1736,16 @@
         <v>66</v>
       </c>
       <c r="D63" s="1">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
       <c r="E63" s="1">
         <v>550.0</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64">
@@ -1564,16 +1753,16 @@
         <v>67</v>
       </c>
       <c r="D64" s="1">
-        <v>200.0</v>
+        <v>185.0</v>
       </c>
       <c r="E64" s="1">
-        <v>40.0</v>
+        <v>550.0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65">
@@ -1581,13 +1770,13 @@
         <v>68</v>
       </c>
       <c r="D65" s="1">
-        <v>210.0</v>
+        <v>190.0</v>
       </c>
       <c r="E65" s="1">
-        <v>26.0</v>
+        <v>50.0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>14</v>
@@ -1598,16 +1787,16 @@
         <v>69</v>
       </c>
       <c r="D66" s="1">
-        <v>210.0</v>
+        <v>190.0</v>
       </c>
       <c r="E66" s="1">
-        <v>550.0</v>
+        <v>40.0</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
@@ -1615,16 +1804,16 @@
         <v>70</v>
       </c>
       <c r="D67" s="1">
-        <v>210.0</v>
+        <v>190.0</v>
       </c>
       <c r="E67" s="1">
-        <v>530.0</v>
+        <v>62.0</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="68">
@@ -1632,10 +1821,10 @@
         <v>71</v>
       </c>
       <c r="D68" s="1">
-        <v>215.0</v>
+        <v>190.0</v>
       </c>
       <c r="E68" s="1">
-        <v>560.0</v>
+        <v>580.0</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -1649,27 +1838,288 @@
         <v>72</v>
       </c>
       <c r="D69" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72" s="1">
+        <v>190.0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>530.0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="E78" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" s="1">
+        <v>210.0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80" s="1">
+        <v>215.0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>560.0</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81" s="1">
         <v>240.0</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E81" s="1">
         <v>550.0</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>73</v>
+      <c r="F81" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="C91" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="C92" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="C93" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="$C$5:$G$69">
-    <sortState ref="C5:G69">
-      <sortCondition ref="D5:D69"/>
+  <autoFilter ref="$C$5:$G$93">
+    <sortState ref="C5:G93">
+      <sortCondition ref="D5:D93"/>
+      <sortCondition ref="C5:C93"/>
+      <sortCondition descending="1" ref="E5:E93"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
@@ -1695,7 +2145,7 @@
   <sheetData>
     <row r="6">
       <c r="C6" s="1" t="s">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
@@ -1717,7 +2167,7 @@
     </row>
     <row r="8">
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1">
         <v>40.0</v>
@@ -1768,64 +2218,64 @@
     </row>
     <row r="11">
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>130.0</v>
+        <v>120.0</v>
       </c>
       <c r="E11" s="1">
-        <v>900.0</v>
+        <v>370.0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1">
-        <v>170.0</v>
+        <v>130.0</v>
       </c>
       <c r="E12" s="1">
-        <v>50.0</v>
+        <v>900.0</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
       <c r="C13" s="1" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1">
-        <v>180.0</v>
+        <v>170.0</v>
       </c>
       <c r="E13" s="1">
-        <v>590.0</v>
+        <v>50.0</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1">
-        <v>185.0</v>
+        <v>180.0</v>
       </c>
       <c r="E14" s="1">
-        <v>520.0</v>
+        <v>590.0</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>9</v>
@@ -1836,98 +2286,98 @@
     </row>
     <row r="15">
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D15" s="1">
-        <v>190.0</v>
+        <v>185.0</v>
       </c>
       <c r="E15" s="1">
-        <v>40.0</v>
+        <v>520.0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
       <c r="C16" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
-        <v>200.0</v>
+        <v>190.0</v>
       </c>
       <c r="E16" s="1">
-        <v>160.0</v>
+        <v>40.0</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17">
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D17" s="1">
         <v>200.0</v>
       </c>
       <c r="E17" s="1">
-        <v>550.0</v>
+        <v>720.0</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
       <c r="C18" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D18" s="1">
         <v>200.0</v>
       </c>
       <c r="E18" s="1">
-        <v>67.0</v>
+        <v>550.0</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19">
       <c r="C19" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1">
         <v>200.0</v>
       </c>
       <c r="E19" s="1">
-        <v>720.0</v>
+        <v>160.0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>230.0</v>
+        <v>200.0</v>
       </c>
       <c r="E20" s="1">
-        <v>45.0</v>
+        <v>67.0</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>14</v>
@@ -1937,17 +2387,17 @@
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="1" t="s">
-        <v>13</v>
+      <c r="C21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>230.0</v>
+        <v>200.0</v>
       </c>
       <c r="E21" s="1">
-        <v>680.0</v>
+        <v>690.0</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>14</v>
@@ -1955,30 +2405,30 @@
     </row>
     <row r="22">
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D22" s="1">
-        <v>239.0</v>
+        <v>230.0</v>
       </c>
       <c r="E22" s="1">
-        <v>550.0</v>
+        <v>680.0</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D23" s="1">
-        <v>250.0</v>
+        <v>230.0</v>
       </c>
       <c r="E23" s="1">
-        <v>22.0</v>
+        <v>45.0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>14</v>
@@ -1988,14 +2438,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="C24" s="1" t="s">
-        <v>45</v>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="D24" s="1">
-        <v>250.0</v>
+        <v>230.0</v>
       </c>
       <c r="E24" s="1">
-        <v>55.0</v>
+        <v>990.0</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>14</v>
@@ -2006,13 +2456,13 @@
     </row>
     <row r="25">
       <c r="C25" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D25" s="1">
-        <v>250.0</v>
+        <v>239.0</v>
       </c>
       <c r="E25" s="1">
-        <v>400.0</v>
+        <v>550.0</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>9</v>
@@ -2023,81 +2473,81 @@
     </row>
     <row r="26">
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D26" s="1">
-        <v>250.0</v>
+        <v>240.0</v>
       </c>
       <c r="E26" s="1">
-        <v>245.0</v>
+        <v>58.0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27">
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D27" s="1">
         <v>250.0</v>
       </c>
       <c r="E27" s="1">
-        <v>42.0</v>
+        <v>400.0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="D28" s="1">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="E28" s="1">
-        <v>510.0</v>
+        <v>245.0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="D29" s="1">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="E29" s="1">
-        <v>550.0</v>
+        <v>55.0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D30" s="1">
-        <v>260.0</v>
+        <v>250.0</v>
       </c>
       <c r="E30" s="1">
-        <v>550.0</v>
+        <v>42.0</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>14</v>
@@ -2108,16 +2558,16 @@
     </row>
     <row r="31">
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D31" s="1">
-        <v>265.0</v>
+        <v>250.0</v>
       </c>
       <c r="E31" s="1">
-        <v>650.0</v>
+        <v>22.0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>14</v>
@@ -2125,13 +2575,13 @@
     </row>
     <row r="32">
       <c r="C32" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D32" s="1">
-        <v>270.0</v>
+        <v>255.0</v>
       </c>
       <c r="E32" s="1">
-        <v>730.0</v>
+        <v>570.0</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>14</v>
@@ -2142,10 +2592,10 @@
     </row>
     <row r="33">
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="D33" s="1">
-        <v>270.0</v>
+        <v>260.0</v>
       </c>
       <c r="E33" s="1">
         <v>550.0</v>
@@ -2159,10 +2609,10 @@
     </row>
     <row r="34">
       <c r="C34" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
       <c r="E34" s="1">
         <v>550.0</v>
@@ -2176,33 +2626,33 @@
     </row>
     <row r="35">
       <c r="C35" s="1" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1">
-        <v>280.0</v>
+        <v>260.0</v>
       </c>
       <c r="E35" s="1">
-        <v>45.0</v>
+        <v>510.0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36">
       <c r="C36" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="D36" s="1">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="E36" s="1">
-        <v>450.0</v>
+        <v>650.0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>14</v>
@@ -2210,16 +2660,16 @@
     </row>
     <row r="37">
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="D37" s="1">
-        <v>280.0</v>
+        <v>265.0</v>
       </c>
       <c r="E37" s="1">
-        <v>500.0</v>
+        <v>250.0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>14</v>
@@ -2227,16 +2677,16 @@
     </row>
     <row r="38">
       <c r="C38" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D38" s="1">
-        <v>285.0</v>
+        <v>270.0</v>
       </c>
       <c r="E38" s="1">
-        <v>600.0</v>
+        <v>730.0</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>14</v>
@@ -2244,30 +2694,30 @@
     </row>
     <row r="39">
       <c r="C39" s="1" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="D39" s="1">
-        <v>290.0</v>
+        <v>270.0</v>
       </c>
       <c r="E39" s="1">
-        <v>520.0</v>
+        <v>550.0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" s="1" t="s">
-        <v>61</v>
+      <c r="C40" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="D40" s="1">
-        <v>290.0</v>
+        <v>270.0</v>
       </c>
       <c r="E40" s="1">
-        <v>64.0</v>
+        <v>54.0</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>14</v>
@@ -2278,13 +2728,13 @@
     </row>
     <row r="41">
       <c r="C41" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D41" s="1">
-        <v>290.0</v>
+        <v>270.0</v>
       </c>
       <c r="E41" s="1">
-        <v>59.0</v>
+        <v>580.0</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>14</v>
@@ -2295,30 +2745,30 @@
     </row>
     <row r="42">
       <c r="C42" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D42" s="1">
-        <v>290.0</v>
+        <v>280.0</v>
       </c>
       <c r="E42" s="1">
-        <v>580.0</v>
+        <v>550.0</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1">
-        <v>300.0</v>
+        <v>280.0</v>
       </c>
       <c r="E43" s="1">
-        <v>19.0</v>
+        <v>500.0</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>14</v>
@@ -2329,13 +2779,13 @@
     </row>
     <row r="44">
       <c r="C44" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D44" s="1">
-        <v>300.0</v>
+        <v>280.0</v>
       </c>
       <c r="E44" s="1">
-        <v>65.0</v>
+        <v>450.0</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>14</v>
@@ -2346,16 +2796,16 @@
     </row>
     <row r="45">
       <c r="C45" s="1" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="D45" s="1">
-        <v>300.0</v>
+        <v>280.0</v>
       </c>
       <c r="E45" s="1">
-        <v>180.0</v>
+        <v>45.0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>14</v>
@@ -2363,16 +2813,16 @@
     </row>
     <row r="46">
       <c r="C46" s="1" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="D46" s="1">
-        <v>300.0</v>
+        <v>285.0</v>
       </c>
       <c r="E46" s="1">
-        <v>40.0</v>
+        <v>600.0</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>14</v>
@@ -2380,16 +2830,16 @@
     </row>
     <row r="47">
       <c r="C47" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="D47" s="1">
-        <v>300.0</v>
+        <v>290.0</v>
       </c>
       <c r="E47" s="1">
-        <v>520.0</v>
+        <v>580.0</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>9</v>
@@ -2397,13 +2847,13 @@
     </row>
     <row r="48">
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D48" s="1">
-        <v>305.0</v>
+        <v>290.0</v>
       </c>
       <c r="E48" s="1">
-        <v>550.0</v>
+        <v>520.0</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>14</v>
@@ -2417,13 +2867,13 @@
         <v>70</v>
       </c>
       <c r="D49" s="1">
-        <v>305.0</v>
+        <v>290.0</v>
       </c>
       <c r="E49" s="1">
-        <v>560.0</v>
+        <v>64.0</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>14</v>
@@ -2431,30 +2881,30 @@
     </row>
     <row r="50">
       <c r="C50" s="1" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="D50" s="1">
-        <v>305.0</v>
+        <v>290.0</v>
       </c>
       <c r="E50" s="1">
-        <v>550.0</v>
+        <v>59.0</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="1" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="D51" s="1">
-        <v>310.0</v>
+        <v>290.0</v>
       </c>
       <c r="E51" s="1">
-        <v>18.0</v>
+        <v>600.0</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>14</v>
@@ -2465,13 +2915,13 @@
     </row>
     <row r="52">
       <c r="C52" s="1" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="D52" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="E52" s="1">
-        <v>550.0</v>
+        <v>520.0</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>9</v>
@@ -2482,30 +2932,30 @@
     </row>
     <row r="53">
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D53" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="E53" s="1">
-        <v>580.0</v>
+        <v>180.0</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D54" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="E54" s="1">
-        <v>40.0</v>
+        <v>65.0</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>14</v>
@@ -2516,13 +2966,13 @@
     </row>
     <row r="55">
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D55" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="E55" s="1">
-        <v>125.0</v>
+        <v>40.0</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>14</v>
@@ -2533,13 +2983,13 @@
     </row>
     <row r="56">
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="D56" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="E56" s="1">
-        <v>46.0</v>
+        <v>19.0</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>14</v>
@@ -2550,30 +3000,30 @@
     </row>
     <row r="57">
       <c r="C57" s="1" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="D57" s="1">
-        <v>310.0</v>
+        <v>300.0</v>
       </c>
       <c r="E57" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="C58" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D58" s="1">
         <v>300.0</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="C58" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" s="1">
-        <v>312.0</v>
-      </c>
       <c r="E58" s="1">
-        <v>67.0</v>
+        <v>54.0</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>14</v>
@@ -2584,16 +3034,16 @@
     </row>
     <row r="59">
       <c r="C59" s="1" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="D59" s="1">
-        <v>315.0</v>
+        <v>305.0</v>
       </c>
       <c r="E59" s="1">
-        <v>510.0</v>
+        <v>560.0</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>14</v>
@@ -2601,13 +3051,13 @@
     </row>
     <row r="60">
       <c r="C60" s="1" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="D60" s="1">
-        <v>315.0</v>
+        <v>305.0</v>
       </c>
       <c r="E60" s="1">
-        <v>50.0</v>
+        <v>550.0</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>14</v>
@@ -2618,16 +3068,16 @@
     </row>
     <row r="61">
       <c r="C61" s="1" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D61" s="1">
-        <v>317.0</v>
+        <v>305.0</v>
       </c>
       <c r="E61" s="1">
         <v>550.0</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>9</v>
@@ -2635,30 +3085,30 @@
     </row>
     <row r="62">
       <c r="C62" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D62" s="1">
-        <v>320.0</v>
+        <v>310.0</v>
       </c>
       <c r="E62" s="1">
-        <v>50.0</v>
+        <v>580.0</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63">
       <c r="C63" s="1" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D63" s="1">
-        <v>320.0</v>
+        <v>310.0</v>
       </c>
       <c r="E63" s="1">
-        <v>520.0</v>
+        <v>550.0</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>9</v>
@@ -2669,16 +3119,16 @@
     </row>
     <row r="64">
       <c r="C64" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="D64" s="1">
-        <v>330.0</v>
+        <v>310.0</v>
       </c>
       <c r="E64" s="1">
-        <v>22.0</v>
+        <v>300.0</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>14</v>
@@ -2686,26 +3136,297 @@
     </row>
     <row r="65">
       <c r="C65" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D65" s="1">
-        <v>340.0</v>
+        <v>310.0</v>
       </c>
       <c r="E65" s="1">
-        <v>58.0</v>
+        <v>125.0</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="C66" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>46.0</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="C67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="C68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>18.0</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D70" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="E70" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="C71" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D71" s="1">
+        <v>312.0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>67.0</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="C72" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D72" s="1">
+        <v>315.0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="C73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="1">
+        <v>315.0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="C74" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D74" s="1">
+        <v>317.0</v>
+      </c>
+      <c r="E74" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="C75" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D75" s="1">
+        <v>320.0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>520.0</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="C76" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" s="1">
+        <v>320.0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="C77" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D77" s="1">
+        <v>330.0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="C78" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="C79" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="C80" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="C82" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="C83" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="C84" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="C85" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="C86" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="C87" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="C88" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="C89" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91">
+      <c r="C91" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$C$7:$G$65">
-    <sortState ref="C7:G65">
-      <sortCondition ref="D7:D65"/>
-      <sortCondition ref="C7:C65"/>
+  <autoFilter ref="$C$7:$G$91">
+    <sortState ref="C7:G91">
+      <sortCondition ref="D7:D91"/>
+      <sortCondition descending="1" ref="E7:E91"/>
+      <sortCondition ref="C7:C91"/>
     </sortState>
   </autoFilter>
   <drawing r:id="rId1"/>
@@ -2730,7 +3451,7 @@
   <sheetData>
     <row r="4">
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5">
@@ -2750,7 +3471,1126 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6">
+      <c r="D6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="D7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>530.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1">
+        <v>97.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>56.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>200.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E13" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>385.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>505.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>470.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>520.0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1100.0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>520.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>79.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E26" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="1">
+        <v>82.0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>530.0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>740.0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E34" s="1">
+        <v>123.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E35" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>48.0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="1">
+        <v>25.0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1400.0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="1">
+        <v>102.0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E51" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>870.0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>520.0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E53" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>72.0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E60" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>150.0</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E61" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F61" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E62" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>28.0</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>180.0</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E65" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F65" s="1">
+        <v>24.0</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>275.0</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F70" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E71" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F71" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F75" s="1">
+        <v>380.0</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" s="1">
+        <v>120.0</v>
+      </c>
+      <c r="F76" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E77" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="F77" s="1">
+        <v>35.0</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F78" s="1">
+        <v>350.0</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F79" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="F80" s="1">
+        <v>52.0</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E84" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="F84" s="1">
+        <v>490.0</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E85" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="F85" s="1">
+        <v>560.0</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F86" s="1">
+        <v>59.0</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E90" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>81.0</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E91" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F91" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F92" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E96" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F96" s="1">
+        <v>58.0</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E97" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F97" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F98" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="$D$5:$H$98">
+    <sortState ref="D5:H98">
+      <sortCondition descending="1" ref="D5:D98"/>
+      <sortCondition ref="E5:E98"/>
+    </sortState>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2764,10 +4604,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="29.63"/>
+    <col customWidth="1" min="6" max="6" width="23.88"/>
+    <col customWidth="1" min="7" max="7" width="22.25"/>
+    <col customWidth="1" min="8" max="8" width="19.5"/>
+  </cols>
   <sheetData>
     <row r="5">
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
@@ -2787,7 +4633,1045 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7">
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>580.0</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>22.0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>375.0</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="D11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>705.0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>500.0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="D14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>820.0</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="D15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1080.0</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="D16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45.0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>580.0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="D17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>310.0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="D18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>26.0</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>275.0</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="D20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>390.0</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="D21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>78.0</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1">
+        <v>60.0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>34.0</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="1">
+        <v>65.0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>490.0</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="1">
+        <v>70.0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>54.0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="1">
+        <v>75.0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>600.0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E27" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1">
+        <v>80.0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>20.0</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1450.0</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E32" s="1">
+        <v>85.0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>255.0</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="1">
+        <v>87.0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>450.0</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44.0</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" s="1">
+        <v>90.0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>50.0</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="D37" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" s="1">
+        <v>95.0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>27.0</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="D38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E39" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="1">
+        <v>100.0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>580.0</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="1">
+        <v>105.0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>560.0</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="D44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>505.0</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="D45" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E45" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>57.0</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="D46" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E46" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>55.0</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="D47" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E47" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>69.0</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1">
+        <v>115.0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>64.0</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="D49" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>490.0</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="D50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>520.0</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="D51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="1">
+        <v>130.0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>550.0</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="D52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E52" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>540.0</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="D53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="1">
+        <v>160.0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>570.0</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="D54" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="D55" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="D56" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="D57" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="D58" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="D59" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="D60" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="D61" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="D62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="D66" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="D67" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="D68" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="D70" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="D73" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="D74" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="D76" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="D77" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="D78" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="D79" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="D80" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="D81" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="D82" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="D83" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F83" s="1">
+        <v>510.0</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="D84" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="D85" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="D86" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="D87" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="D88" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="D89" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="D90" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="D91" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="D92" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="D93" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="D94" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="$D$6:$H$98">
+    <sortState ref="D6:H98">
+      <sortCondition ref="E6:E98"/>
+    </sortState>
+  </autoFilter>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>